--- a/Node的CPU运行情况.xlsx
+++ b/Node的CPU运行情况.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>ID</t>
   </si>
@@ -170,6 +170,12 @@
   </si>
   <si>
     <t>6:28</t>
+  </si>
+  <si>
+    <t>07:40:25</t>
+  </si>
+  <si>
+    <t>6:30</t>
   </si>
 </sst>
 </file>
@@ -1146,6 +1152,35 @@
         <v>1.72</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>1.67</v>
+      </c>
+      <c r="H24">
+        <v>1.61</v>
+      </c>
+      <c r="I24">
+        <v>1.66</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>